--- a/medicine/Enfance/Mutli/Mutli.xlsx
+++ b/medicine/Enfance/Mutli/Mutli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mutli est une série de bande dessinée destinée à la jeunesse créé en 1982 à l'initiative de la Commission Jeunes de la Mutualité Française du Rhône 
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutli le Saint Bernard en est aujourd'hui[Quand ?] à sa dixième aventure.
-En 1996, le huitième numéro a été distribué à 140 000 exemplaires dans des classes du département du Rhône[1]. Principalement destinés aux écoles de la région Rhône Alpes, deux numéros ont néanmoins été distribués au niveau national. 
-Le dessinateur Jean Prost a réalisé les sept premiers numéros, Gilbert Bouchard les trois derniers. Concernant ses trois numéros, la Mutualité Française du Rhône a conclu un partenariat avec les Éditions du Moutard[2].
+En 1996, le huitième numéro a été distribué à 140 000 exemplaires dans des classes du département du Rhône. Principalement destinés aux écoles de la région Rhône Alpes, deux numéros ont néanmoins été distribués au niveau national. 
+Le dessinateur Jean Prost a réalisé les sept premiers numéros, Gilbert Bouchard les trois derniers. Concernant ses trois numéros, la Mutualité Française du Rhône a conclu un partenariat avec les Éditions du Moutard.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Liste des bandes dessinées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dix numéros parus depuis 1984 sont :
 La Mutualité (1984)
